--- a/test/input/Zacros_Species_Energy.xlsx
+++ b/test/input/Zacros_Species_Energy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerha\Documents\Python Scripts\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerhard\Documents\GitHub\Zacros-Wrapper\test\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11362D3A-F7B2-49DA-96B6-C4AC8F4ECCFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C76297-275E-401B-A474-F988654F1041}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>A_st</t>
   </si>
   <si>
-    <t>Edisp</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -127,18 +124,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>elements~H</t>
-  </si>
-  <si>
-    <t>elements~C</t>
-  </si>
-  <si>
-    <t>elements~O</t>
-  </si>
-  <si>
-    <t>elements~N</t>
-  </si>
-  <si>
     <t>geometry</t>
   </si>
   <si>
@@ -197,6 +182,27 @@
   </si>
   <si>
     <t>vib_wavenumber~13</t>
+  </si>
+  <si>
+    <t>elements.C</t>
+  </si>
+  <si>
+    <t>elements.H</t>
+  </si>
+  <si>
+    <t>elements.O</t>
+  </si>
+  <si>
+    <t>elements.N</t>
+  </si>
+  <si>
+    <t>statmech_model</t>
+  </si>
+  <si>
+    <t>IdealGas</t>
+  </si>
+  <si>
+    <t>Harmonic</t>
   </si>
 </sst>
 </file>
@@ -680,10 +686,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,86 +1049,86 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1134,7 +1141,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1153,7 +1160,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1162,17 +1169,20 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1">
         <v>1.75E-20</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>-588.96939999999995</v>
       </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
       <c r="K3" s="1">
         <v>1.4600000000000001E-46</v>
       </c>
@@ -1185,7 +1195,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1194,17 +1204,20 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>5.2499999999999997E-20</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>-1025.4622999999999</v>
       </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
       <c r="K4" s="1">
         <v>7.1499999999999997E-46</v>
       </c>
@@ -1223,23 +1236,26 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1">
         <v>5.2499999999999997E-20</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>-867.20169999999996</v>
       </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
       <c r="K5" s="1">
         <v>1.9500000000000001E-46</v>
       </c>
@@ -1252,23 +1268,26 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
         <v>5.2499999999999997E-20</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>-31.6629</v>
       </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
       <c r="K6" s="1">
         <v>4.7200000000000003E-48</v>
       </c>
@@ -1281,7 +1300,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1290,17 +1309,20 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1">
         <v>1.75E-20</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>-467.46039999999999</v>
       </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
       <c r="K7" s="1">
         <v>5.8600000000000004E-141</v>
       </c>
@@ -1319,14 +1341,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>-12039.09</v>
       </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
       <c r="M8">
         <v>367</v>
       </c>
@@ -1342,14 +1367,17 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>-11882.98</v>
       </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
       <c r="M9">
         <v>366</v>
       </c>
@@ -1362,14 +1390,17 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>-11916.04</v>
       </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
       <c r="M10">
         <v>241</v>
       </c>
@@ -1391,14 +1422,17 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>-11899.15</v>
       </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
       <c r="M11">
         <v>494</v>
       </c>
@@ -1411,14 +1445,18 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>-11464.54</v>
       </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="2"/>
       <c r="M12">
         <v>692</v>
       </c>
@@ -1431,14 +1469,17 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>-12054.46</v>
       </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
       <c r="M13">
         <v>235</v>
       </c>
@@ -1466,14 +1507,17 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>-12489.87</v>
       </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
       <c r="M14">
         <v>287</v>
       </c>
@@ -1504,14 +1548,17 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>-12490.26</v>
       </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
       <c r="M15">
         <v>267</v>
       </c>
@@ -1542,14 +1589,17 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>-11479.95</v>
       </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
       <c r="M16">
         <v>305</v>
       </c>
@@ -1565,14 +1615,17 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>-12472.44</v>
       </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
       <c r="M17">
         <v>290</v>
       </c>
@@ -1594,14 +1647,17 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>-11915.26</v>
       </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
       <c r="M18">
         <v>254</v>
       </c>
@@ -1626,14 +1682,17 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19">
         <v>-11898.21</v>
       </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
       <c r="M19">
         <v>260</v>
       </c>
@@ -1649,14 +1708,17 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>-12350.53</v>
       </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
       <c r="M20">
         <v>268</v>
       </c>
@@ -1687,14 +1749,17 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>-12489.54</v>
       </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
       <c r="M21">
         <v>310</v>
       </c>
@@ -1722,14 +1787,17 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>-12489.4</v>
       </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
       <c r="M22">
         <v>275</v>
       </c>
@@ -1754,14 +1822,17 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>-12924.54</v>
       </c>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
       <c r="M23">
         <v>235</v>
       </c>
@@ -1798,14 +1869,17 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24">
         <v>-12941.08</v>
       </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
       <c r="M24">
         <v>267</v>
       </c>
@@ -1845,14 +1919,17 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>-12054.1</v>
       </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
       <c r="M25">
         <v>213</v>
       </c>
@@ -1877,14 +1954,17 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <v>-12488.19</v>
       </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
       <c r="M26">
         <v>285</v>
       </c>
@@ -1915,14 +1995,17 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27">
         <v>-12488.83</v>
       </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
       <c r="M27">
         <v>207</v>
       </c>
@@ -1950,14 +2033,17 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>-12922.88</v>
       </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
       <c r="M28">
         <v>235</v>
       </c>
@@ -1994,14 +2080,17 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>-12922.88</v>
       </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
       <c r="M29">
         <v>235</v>
       </c>
@@ -2038,14 +2127,17 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <v>-12939.78</v>
       </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
       <c r="M30">
         <v>201</v>
       </c>
@@ -2088,14 +2180,17 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <v>-12939.78</v>
       </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
       <c r="M31">
         <v>201</v>
       </c>
@@ -2138,10 +2233,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I32">
         <v>-11448.22</v>
